--- a/LiveCorpus..xlsx
+++ b/LiveCorpus..xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\KILI\KILI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2637,9 +2637,6 @@
     <t>V ipf praet sg indic m - 3p</t>
   </si>
   <si>
-    <t xml:space="preserve">SPRO - gen sg plen n </t>
-  </si>
-  <si>
     <t xml:space="preserve">A - nom sg plen m </t>
   </si>
   <si>
@@ -2691,9 +2688,6 @@
     <t>S m inan sg loc</t>
   </si>
   <si>
-    <t>INTJ m anim nonflex</t>
-  </si>
-  <si>
     <t>ANUM - acc sg plen f -</t>
   </si>
   <si>
@@ -2902,6 +2896,12 @@
   </si>
   <si>
     <t>S - inan nom pl 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APRO - gen sg plen n </t>
   </si>
 </sst>
 </file>
@@ -3257,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA778AE-777D-4F5D-AC64-4AA3ED2A3B12}">
   <dimension ref="A1:O1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,7 +3655,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>957</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -4732,7 +4732,7 @@
         <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -4773,7 +4773,7 @@
         <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G52" t="s">
         <v>55</v>
@@ -4898,7 +4898,7 @@
         <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>870</v>
+        <v>958</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -5032,7 +5032,7 @@
         <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G60" t="s">
         <v>5</v>
@@ -5227,7 +5227,7 @@
         <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G67" t="s">
         <v>55</v>
@@ -5265,7 +5265,7 @@
         <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G68" t="s">
         <v>55</v>
@@ -5370,7 +5370,7 @@
         <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G71" t="s">
         <v>55</v>
@@ -5626,7 +5626,7 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G80" t="s">
         <v>26</v>
@@ -5667,7 +5667,7 @@
         <v>105</v>
       </c>
       <c r="D81" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G81" t="s">
         <v>56</v>
@@ -5900,7 +5900,7 @@
         <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G89" t="s">
         <v>26</v>
@@ -6049,7 +6049,7 @@
         <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -6116,7 +6116,7 @@
         <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G95" t="s">
         <v>56</v>
@@ -6692,7 +6692,7 @@
         <v>113</v>
       </c>
       <c r="D113" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G113" t="s">
         <v>26</v>
@@ -6893,7 +6893,7 @@
         <v>113</v>
       </c>
       <c r="D120" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G120" t="s">
         <v>26</v>
@@ -7204,7 +7204,7 @@
         <v>218</v>
       </c>
       <c r="D131" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
@@ -7474,7 +7474,7 @@
         <v>228</v>
       </c>
       <c r="D141" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G141" t="s">
         <v>10</v>
@@ -7721,7 +7721,7 @@
         <v>237</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>888</v>
+        <v>235</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
@@ -7837,7 +7837,7 @@
         <v>241</v>
       </c>
       <c r="D154" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G154" t="s">
         <v>26</v>
@@ -7898,7 +7898,7 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G157" t="s">
         <v>10</v>
@@ -8102,7 +8102,7 @@
         <v>134</v>
       </c>
       <c r="D164" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G164" t="s">
         <v>15</v>
@@ -8855,7 +8855,7 @@
         <v>269</v>
       </c>
       <c r="D191" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G191" t="s">
         <v>26</v>
@@ -8942,7 +8942,7 @@
         <v>272</v>
       </c>
       <c r="D194" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -9134,7 +9134,7 @@
         <v>279</v>
       </c>
       <c r="D201" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G201" t="s">
         <v>5</v>
@@ -9318,7 +9318,7 @@
         <v>30</v>
       </c>
       <c r="D206" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G206" t="s">
         <v>8</v>
@@ -9711,10 +9711,10 @@
         <v>293</v>
       </c>
       <c r="D219" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E219" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G219" t="s">
         <v>26</v>
@@ -9834,7 +9834,7 @@
         <v>300</v>
       </c>
       <c r="D222" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G222" t="s">
         <v>5</v>
@@ -9968,7 +9968,7 @@
         <v>306</v>
       </c>
       <c r="D227" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G227" t="s">
         <v>77</v>
@@ -10189,7 +10189,7 @@
         <v>314</v>
       </c>
       <c r="D234" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I234" t="s">
         <v>15</v>
@@ -10952,10 +10952,10 @@
         <v>5</v>
       </c>
       <c r="B259" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C259" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D259" t="s">
         <v>202</v>
@@ -11417,7 +11417,7 @@
         <v>134</v>
       </c>
       <c r="D276" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G276" t="s">
         <v>10</v>
@@ -11801,7 +11801,7 @@
         <v>306</v>
       </c>
       <c r="D290" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G290" t="s">
         <v>77</v>
@@ -11833,7 +11833,7 @@
         <v>351</v>
       </c>
       <c r="D291" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G291" t="s">
         <v>26</v>
@@ -11871,7 +11871,7 @@
         <v>354</v>
       </c>
       <c r="D292" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G292" t="s">
         <v>26</v>
@@ -12142,7 +12142,7 @@
         <v>364</v>
       </c>
       <c r="D301" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G301" t="s">
         <v>26</v>
@@ -12244,7 +12244,7 @@
         <v>234</v>
       </c>
       <c r="D304" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G304" t="s">
         <v>77</v>
@@ -12378,7 +12378,7 @@
         <v>116</v>
       </c>
       <c r="D308" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G308" t="s">
         <v>56</v>
@@ -12672,7 +12672,7 @@
         <v>385</v>
       </c>
       <c r="D318" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G318" t="s">
         <v>26</v>
@@ -12835,7 +12835,7 @@
         <v>390</v>
       </c>
       <c r="D323" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G323" t="s">
         <v>55</v>
@@ -12899,7 +12899,7 @@
         <v>154</v>
       </c>
       <c r="D326" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G326" t="s">
         <v>38</v>
@@ -12925,7 +12925,7 @@
         <v>392</v>
       </c>
       <c r="D327" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G327" t="s">
         <v>5</v>
@@ -13129,7 +13129,7 @@
         <v>182</v>
       </c>
       <c r="E333" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G333" t="s">
         <v>56</v>
@@ -13359,7 +13359,7 @@
         <v>404</v>
       </c>
       <c r="D341" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G341" t="s">
         <v>26</v>
@@ -13423,7 +13423,7 @@
         <v>406</v>
       </c>
       <c r="D344" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G344" t="s">
         <v>56</v>
@@ -14380,7 +14380,7 @@
         <v>430</v>
       </c>
       <c r="D377" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G377" t="s">
         <v>26</v>
@@ -14441,7 +14441,7 @@
         <v>432</v>
       </c>
       <c r="D379" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G379" t="s">
         <v>15</v>
@@ -14505,7 +14505,7 @@
         <v>234</v>
       </c>
       <c r="D382" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G382" t="s">
         <v>77</v>
@@ -14647,7 +14647,7 @@
         <v>134</v>
       </c>
       <c r="D388" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G388" t="s">
         <v>55</v>
@@ -14772,7 +14772,7 @@
         <v>306</v>
       </c>
       <c r="D393" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G393" t="s">
         <v>77</v>
@@ -15075,7 +15075,7 @@
         <v>447</v>
       </c>
       <c r="D403" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G403" t="s">
         <v>55</v>
@@ -15686,7 +15686,7 @@
         <v>460</v>
       </c>
       <c r="D426" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G426" t="s">
         <v>38</v>
@@ -16000,7 +16000,7 @@
         <v>470</v>
       </c>
       <c r="D436" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G436" t="s">
         <v>77</v>
@@ -16041,7 +16041,7 @@
         <v>412</v>
       </c>
       <c r="D437" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G437" t="s">
         <v>6</v>
@@ -16096,7 +16096,7 @@
         <v>30</v>
       </c>
       <c r="D439" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G439" t="s">
         <v>26</v>
@@ -16224,7 +16224,7 @@
         <v>477</v>
       </c>
       <c r="D443" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G443" t="s">
         <v>10</v>
@@ -16756,7 +16756,7 @@
         <v>379</v>
       </c>
       <c r="D463" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G463" t="s">
         <v>10</v>
@@ -16820,7 +16820,7 @@
         <v>489</v>
       </c>
       <c r="D465" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G465" t="s">
         <v>10</v>
@@ -16986,7 +16986,7 @@
         <v>490</v>
       </c>
       <c r="D471" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G471" t="s">
         <v>5</v>
@@ -17035,7 +17035,7 @@
         <v>494</v>
       </c>
       <c r="D474" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G474" t="s">
         <v>38</v>
@@ -17753,7 +17753,7 @@
         <v>306</v>
       </c>
       <c r="D499" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G499" t="s">
         <v>77</v>
@@ -17890,7 +17890,7 @@
         <v>511</v>
       </c>
       <c r="D504" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G504" t="s">
         <v>5</v>
@@ -18365,7 +18365,7 @@
         <v>116</v>
       </c>
       <c r="D518" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G518" t="s">
         <v>73</v>
@@ -18444,7 +18444,7 @@
         <v>182</v>
       </c>
       <c r="E520" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G520" t="s">
         <v>10</v>
@@ -18572,7 +18572,7 @@
         <v>494</v>
       </c>
       <c r="D525" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G525" t="s">
         <v>38</v>
@@ -20658,7 +20658,7 @@
         <v>11</v>
       </c>
       <c r="E594" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I594" t="s">
         <v>7</v>
@@ -20798,7 +20798,7 @@
         <v>113</v>
       </c>
       <c r="D599" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G599" t="s">
         <v>26</v>
@@ -21127,7 +21127,7 @@
         <v>587</v>
       </c>
       <c r="D611" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G611" t="s">
         <v>15</v>
@@ -21287,7 +21287,7 @@
         <v>589</v>
       </c>
       <c r="E617" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G617" t="s">
         <v>26</v>
@@ -21418,7 +21418,7 @@
         <v>592</v>
       </c>
       <c r="D622" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G622" t="s">
         <v>26</v>
@@ -21482,7 +21482,7 @@
         <v>594</v>
       </c>
       <c r="D624" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G624" t="s">
         <v>38</v>
@@ -21726,7 +21726,7 @@
         <v>387</v>
       </c>
       <c r="D633" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G633" t="s">
         <v>15</v>
@@ -22206,7 +22206,7 @@
         <v>613</v>
       </c>
       <c r="D648" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G648" t="s">
         <v>5</v>
@@ -22468,7 +22468,7 @@
         <v>583</v>
       </c>
       <c r="D656" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G656" t="s">
         <v>77</v>
@@ -22646,7 +22646,7 @@
         <v>624</v>
       </c>
       <c r="D661" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G661" t="s">
         <v>26</v>
@@ -22844,7 +22844,7 @@
         <v>630</v>
       </c>
       <c r="D668" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G668" t="s">
         <v>10</v>
@@ -22885,7 +22885,7 @@
         <v>632</v>
       </c>
       <c r="D669" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G669" t="s">
         <v>26</v>
@@ -23042,7 +23042,7 @@
         <v>634</v>
       </c>
       <c r="E674" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G674" t="s">
         <v>38</v>
@@ -23080,7 +23080,7 @@
         <v>636</v>
       </c>
       <c r="D675" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G675" t="s">
         <v>5</v>
@@ -23321,7 +23321,7 @@
         <v>316</v>
       </c>
       <c r="D683" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G683" t="s">
         <v>8</v>
@@ -23550,7 +23550,7 @@
         <v>494</v>
       </c>
       <c r="D692" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G692" t="s">
         <v>38</v>
@@ -23876,7 +23876,7 @@
         <v>587</v>
       </c>
       <c r="D703" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G703" t="s">
         <v>15</v>
@@ -24036,7 +24036,7 @@
         <v>649</v>
       </c>
       <c r="D708" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G708" t="s">
         <v>26</v>
@@ -24856,7 +24856,7 @@
         <v>113</v>
       </c>
       <c r="D738" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G738" t="s">
         <v>26</v>
@@ -25379,7 +25379,7 @@
         <v>624</v>
       </c>
       <c r="D758" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G758" t="s">
         <v>26</v>
@@ -25726,7 +25726,7 @@
         <v>680</v>
       </c>
       <c r="D768" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G768" t="s">
         <v>38</v>
@@ -26239,7 +26239,7 @@
         <v>306</v>
       </c>
       <c r="D785" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G785" t="s">
         <v>77</v>
@@ -26344,7 +26344,7 @@
         <v>691</v>
       </c>
       <c r="D788" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G788" t="s">
         <v>5</v>
@@ -26382,7 +26382,7 @@
         <v>694</v>
       </c>
       <c r="D789" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G789" t="s">
         <v>5</v>
@@ -26519,7 +26519,7 @@
         <v>701</v>
       </c>
       <c r="D794" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G794" t="s">
         <v>37</v>
@@ -26606,7 +26606,7 @@
         <v>704</v>
       </c>
       <c r="D797" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G797" t="s">
         <v>26</v>
@@ -26862,7 +26862,7 @@
         <v>691</v>
       </c>
       <c r="D805" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G805" t="s">
         <v>5</v>
@@ -26900,7 +26900,7 @@
         <v>694</v>
       </c>
       <c r="D806" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G806" t="s">
         <v>5</v>
@@ -27019,7 +27019,7 @@
         <v>477</v>
       </c>
       <c r="D810" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G810" t="s">
         <v>10</v>
@@ -27258,7 +27258,7 @@
         <v>364</v>
       </c>
       <c r="D817" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G817" t="s">
         <v>26</v>
@@ -27357,7 +27357,7 @@
         <v>351</v>
       </c>
       <c r="D820" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G820" t="s">
         <v>26</v>
@@ -27468,7 +27468,7 @@
         <v>719</v>
       </c>
       <c r="D823" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G823" t="s">
         <v>10</v>
@@ -27535,7 +27535,7 @@
         <v>701</v>
       </c>
       <c r="D825" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G825" t="s">
         <v>37</v>
@@ -27950,13 +27950,13 @@
         <v>6</v>
       </c>
       <c r="B841" t="s">
+        <v>934</v>
+      </c>
+      <c r="C841" t="s">
+        <v>935</v>
+      </c>
+      <c r="D841" t="s">
         <v>936</v>
-      </c>
-      <c r="C841" t="s">
-        <v>937</v>
-      </c>
-      <c r="D841" t="s">
-        <v>938</v>
       </c>
       <c r="G841" t="s">
         <v>73</v>
@@ -27997,7 +27997,7 @@
         <v>728</v>
       </c>
       <c r="D842" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G842" t="s">
         <v>38</v>
@@ -28293,7 +28293,7 @@
         <v>649</v>
       </c>
       <c r="D853" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G853" t="s">
         <v>26</v>
@@ -28357,7 +28357,7 @@
         <v>731</v>
       </c>
       <c r="D856" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G856" t="s">
         <v>26</v>
@@ -28596,7 +28596,7 @@
         <v>116</v>
       </c>
       <c r="D863" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G863" t="s">
         <v>73</v>
@@ -28634,7 +28634,7 @@
         <v>741</v>
       </c>
       <c r="D864" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G864" t="s">
         <v>8</v>
@@ -28975,7 +28975,7 @@
         <v>649</v>
       </c>
       <c r="D875" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G875" t="s">
         <v>26</v>
@@ -29258,7 +29258,7 @@
         <v>116</v>
       </c>
       <c r="D885" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G885" t="s">
         <v>26</v>
@@ -29412,7 +29412,7 @@
         <v>728</v>
       </c>
       <c r="D891" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G891" t="s">
         <v>38</v>
@@ -29575,7 +29575,7 @@
         <v>719</v>
       </c>
       <c r="D897" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G897" t="s">
         <v>10</v>
@@ -29642,7 +29642,7 @@
         <v>701</v>
       </c>
       <c r="D899" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G899" t="s">
         <v>37</v>
@@ -29729,7 +29729,7 @@
         <v>691</v>
       </c>
       <c r="D902" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G902" t="s">
         <v>77</v>
@@ -30011,7 +30011,7 @@
         <v>763</v>
       </c>
       <c r="D912" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G912" t="s">
         <v>10</v>
@@ -30084,7 +30084,7 @@
         <v>351</v>
       </c>
       <c r="D914" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G914" t="s">
         <v>26</v>
@@ -30311,7 +30311,7 @@
         <v>770</v>
       </c>
       <c r="D922" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G922" t="s">
         <v>77</v>
@@ -30372,7 +30372,7 @@
         <v>772</v>
       </c>
       <c r="D925" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G925" t="s">
         <v>10</v>
@@ -31155,7 +31155,7 @@
         <v>786</v>
       </c>
       <c r="D951" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G951" t="s">
         <v>77</v>
@@ -31929,7 +31929,7 @@
         <v>802</v>
       </c>
       <c r="D976" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G976" t="s">
         <v>15</v>
@@ -32360,7 +32360,7 @@
         <v>810</v>
       </c>
       <c r="D990" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G990" t="s">
         <v>5</v>
@@ -32450,7 +32450,7 @@
         <v>813</v>
       </c>
       <c r="D993" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I993" t="s">
         <v>55</v>
@@ -32485,7 +32485,7 @@
         <v>237</v>
       </c>
       <c r="D994" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G994" t="s">
         <v>8</v>
@@ -32852,7 +32852,7 @@
         <v>829</v>
       </c>
       <c r="D1007" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G1007" t="s">
         <v>55</v>
@@ -33277,7 +33277,7 @@
         <v>821</v>
       </c>
       <c r="D1020" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G1020" t="s">
         <v>38</v>
@@ -33516,7 +33516,7 @@
         <v>851</v>
       </c>
       <c r="D1027" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G1027" t="s">
         <v>8</v>
